--- a/lab_5_exp4_simulatin of communication channel under AWGN.xlsx
+++ b/lab_5_exp4_simulatin of communication channel under AWGN.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,38 +228,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:H25"/>
     </sheetView>
   </sheetViews>
@@ -586,183 +586,183 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
